--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>894399.4808298358</v>
+        <v>891918.5610043766</v>
       </c>
     </row>
     <row r="7">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>311.5034673860652</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
@@ -1385,10 +1385,10 @@
         <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.2676152010494</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
-        <v>33.52175196386517</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
         <v>342.8109540913426</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,22 +1531,22 @@
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>27.86162954291954</v>
+        <v>90.12097307876962</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292089</v>
+        <v>62.01200608292088</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184864</v>
@@ -1594,7 +1594,7 @@
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>338.3527451838811</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>367.7634045425691</v>
       </c>
       <c r="G14" t="n">
         <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>51.77815548590502</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,22 +1765,22 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>74.68430705593126</v>
+        <v>86.26051497487788</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
         <v>259.6028517494645</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577615</v>
+        <v>267.1640487096471</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>119.3934559514744</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411903</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432826</v>
+        <v>77.43656365929215</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>214.2140663782817</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
         <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>3.974324134332621</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816014</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T20" t="n">
-        <v>88.34817718578647</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
         <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3363911711818</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411903</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432826</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257228</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948574</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577615</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665427</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2333,7 +2333,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2375,10 +2375,10 @@
         <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644158</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116939</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290875</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249327</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085009</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721216</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330914</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8597317086017</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411903</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432826</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257228</v>
+        <v>178.2734363206859</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704501</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2423601181089</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6277151308719</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>214.2140663782818</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463757</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2564,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231197</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348616</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -3029,7 +3029,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
         <v>307.7079050020903</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3190,22 +3190,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007074</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383219</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052273</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010725</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846406</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482614</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>90.60953276887767</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>143.0438109257879</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775077</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007077</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383223</v>
+        <v>133.1067657762835</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010729</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I40" t="n">
-        <v>50.95950582245242</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333683</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007074</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383219</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052273</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846406</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482614</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092312</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621568</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I43" t="n">
-        <v>42.20693826439493</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3952,19 +3952,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>239.4866237999594</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592135</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007074</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247635</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383219</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052273</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010725</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846406</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482614</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092312</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621568</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957229</v>
+        <v>205.4124289181747</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>170.2318734253268</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2140.018136355092</v>
+        <v>1184.064799705182</v>
       </c>
       <c r="C11" t="n">
-        <v>1798.247686674404</v>
+        <v>1184.064799705182</v>
       </c>
       <c r="D11" t="n">
-        <v>1467.174055327377</v>
+        <v>852.9911683581552</v>
       </c>
       <c r="E11" t="n">
-        <v>1108.577869988856</v>
+        <v>852.9911683581552</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7840324589724</v>
+        <v>469.1973308282712</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9036495636927</v>
+        <v>81.31694793299117</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218357</v>
+        <v>81.31694793299117</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,13 +5051,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5069,22 +5069,22 @@
         <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3208.646864876934</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3208.646864876934</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>3208.646864876934</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>3208.646864876934</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2862.373173875578</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>2499.42590915949</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5136,10 +5136,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.4876976154927</v>
+        <v>418.3126375609363</v>
       </c>
       <c r="C13" t="n">
-        <v>664.7435819473095</v>
+        <v>276.5685218927531</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029463</v>
+        <v>185.537235954602</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802769</v>
+        <v>185.537235954602</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420902</v>
+        <v>185.537235954602</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765328</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
         <v>712.1345656402568</v>
@@ -5224,25 +5224,25 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.369902162335</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1651.459102547703</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1423.966681601539</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>1161.741578824302</v>
+        <v>967.1670306535523</v>
       </c>
       <c r="X13" t="n">
-        <v>960.9440951860088</v>
+        <v>766.3695470152586</v>
       </c>
       <c r="Y13" t="n">
-        <v>960.9440951860088</v>
+        <v>572.7690351314523</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1796.226782517379</v>
+        <v>1498.714766761813</v>
       </c>
       <c r="C14" t="n">
-        <v>1454.456332836691</v>
+        <v>1156.944317081126</v>
       </c>
       <c r="D14" t="n">
-        <v>1123.382701489664</v>
+        <v>825.8706857340987</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>825.8706857340987</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597799</v>
+        <v>454.3924993274632</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645001</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>81.316947932991</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939507</v>
@@ -5297,31 +5297,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395988</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039934</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573494</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489647</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
         <v>2207.935722479257</v>
       </c>
       <c r="X14" t="n">
-        <v>2207.935722479257</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y14" t="n">
-        <v>2155.634555321777</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5379,28 +5379,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>645.8050585070989</v>
+        <v>418.3126375609361</v>
       </c>
       <c r="C16" t="n">
-        <v>645.8050585070989</v>
+        <v>276.5685218927529</v>
       </c>
       <c r="D16" t="n">
-        <v>522.8804863544869</v>
+        <v>153.6439497401409</v>
       </c>
       <c r="E16" t="n">
-        <v>402.1594600318175</v>
+        <v>153.6439497401409</v>
       </c>
       <c r="F16" t="n">
-        <v>282.4615797936308</v>
+        <v>153.6439497401409</v>
       </c>
       <c r="G16" t="n">
-        <v>141.9508104280736</v>
+        <v>153.6439497401409</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
         <v>712.1345656402568</v>
@@ -5455,7 +5455,7 @@
         <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
@@ -5467,19 +5467,19 @@
         <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376952</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1456.884554376952</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1194.659451599715</v>
+        <v>967.1670306535524</v>
       </c>
       <c r="X16" t="n">
-        <v>993.8619679614214</v>
+        <v>766.3695470152586</v>
       </c>
       <c r="Y16" t="n">
-        <v>800.261456077615</v>
+        <v>572.7690351314521</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666651</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="C17" t="n">
         <v>1560.999521934037</v>
@@ -5498,7 +5498,7 @@
         <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>966.228971144636</v>
+        <v>966.2289711446361</v>
       </c>
       <c r="F17" t="n">
         <v>629.8847665628256</v>
@@ -5513,7 +5513,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810562</v>
@@ -5546,19 +5546,19 @@
         <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.620805936082</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2902.199618800309</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344274</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290991</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522976</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,10 +5595,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5610,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872281</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671182</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625796</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879835</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978702</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604103</v>
+        <v>89.19609340604106</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1849.075796917491</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952114</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729437</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454039</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096708</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1560.999521934037</v>
+        <v>1518.904057542004</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809389</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>940.9592424104353</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446363</v>
+        <v>629.8126900199882</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628259</v>
+        <v>293.4684854381776</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344065</v>
       </c>
       <c r="T20" t="n">
-        <v>3200.716270328116</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U20" t="n">
-        <v>3021.82749380975</v>
+        <v>2979.732029417717</v>
       </c>
       <c r="V20" t="n">
-        <v>2765.406306673976</v>
+        <v>2723.310842281943</v>
       </c>
       <c r="W20" t="n">
-        <v>2487.279351611659</v>
+        <v>2445.183887219626</v>
       </c>
       <c r="X20" t="n">
-        <v>2188.455293558377</v>
+        <v>2146.359829166343</v>
       </c>
       <c r="Y20" t="n">
-        <v>1872.957661790362</v>
+        <v>1830.862197398328</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5817,46 +5817,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872281</v>
+        <v>569.1217789872285</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671182</v>
+        <v>474.8272962671185</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625796</v>
+        <v>399.3523570625798</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879835</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978702</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604103</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
         <v>1795.061607088441</v>
@@ -5941,19 +5941,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356246</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817308</v>
+        <v>822.2794225454043</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459977</v>
+        <v>676.1285436096712</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.094609534935</v>
+        <v>973.0946095349357</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531251</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>388.4813261528515</v>
+        <v>277.7692084607061</v>
       </c>
       <c r="K23" t="n">
-        <v>722.3006998426979</v>
+        <v>932.4925405960055</v>
       </c>
       <c r="L23" t="n">
-        <v>1173.334913091107</v>
+        <v>1383.526753844414</v>
       </c>
       <c r="M23" t="n">
-        <v>1706.866817763031</v>
+        <v>1917.058658516338</v>
       </c>
       <c r="N23" t="n">
-        <v>2253.645634821813</v>
+        <v>2463.837475575121</v>
       </c>
       <c r="O23" t="n">
-        <v>2756.61810570115</v>
+        <v>2966.809946454458</v>
       </c>
       <c r="P23" t="n">
-        <v>3151.392472058328</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124118</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.23877285901</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451029</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714071</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902801</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.022053929029</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235734</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504585</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.886940783077</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130996</v>
+        <v>167.0550243130995</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934471</v>
+        <v>405.3192232934466</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061124</v>
+        <v>772.0173836061118</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6081,7 +6081,7 @@
         <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
         <v>2414.27762327704</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.987417377527</v>
+        <v>575.9874173775274</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574171</v>
+        <v>481.6929346574175</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528785</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782824</v>
+        <v>332.9466020782826</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881691</v>
+        <v>260.6983547881693</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633998</v>
+        <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182942</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119736</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>982.4929116259235</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357028</v>
+        <v>829.1450609357032</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999697</v>
+        <v>682.9941819999701</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>625.3777437664569</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.992678104635</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M26" t="n">
-        <v>1928.524582776559</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N26" t="n">
-        <v>2475.303399835341</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6315,16 +6315,16 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.992678104635</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>1928.524582776559</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2475.303399835341</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6564,25 +6564,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467775</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424366</v>
+        <v>3336.058965299584</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3730.833331656761</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3979.119693412444</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863829</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146291</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833284</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805546</v>
       </c>
     </row>
     <row r="33">
@@ -6774,13 +6774,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
         <v>779.7865456803195</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
         <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7038,28 +7038,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389149</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>571.9707875848516</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>520.5255827463594</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>471.2839237378099</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>423.065410813743</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>255.362574188462</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058688</v>
+        <v>1471.20877751071</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1182.105910636354</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663015</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388412</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953111</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,34 +7157,34 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464977</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7196,16 +7196,16 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
         <v>765.151745215813</v>
@@ -7269,22 +7269,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199864</v>
@@ -7293,7 +7293,7 @@
         <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
         <v>1109.759191501176</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>749.7479478441298</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C40" t="n">
-        <v>679.4831994900665</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D40" t="n">
-        <v>628.0379946515742</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E40" t="n">
-        <v>578.7963356430246</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>431.9063881451142</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>264.2035515198331</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>117.9863647376909</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.449641246691</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T40" t="n">
-        <v>1621.35446039006</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1430.923028089547</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1274.909974457504</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>1084.164238994387</v>
+        <v>886.8213698466991</v>
       </c>
       <c r="X40" t="n">
-        <v>954.8461226702127</v>
+        <v>757.5032535225251</v>
       </c>
       <c r="Y40" t="n">
-        <v>832.7249781005261</v>
+        <v>635.3821089528384</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307323</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495727</v>
@@ -7433,16 +7433,16 @@
         <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
         <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746126</v>
@@ -7454,7 +7454,7 @@
         <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.07033796065</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650713</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C43" t="n">
-        <v>473.299353011008</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D43" t="n">
-        <v>323.1827135986722</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901226</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F43" t="n">
-        <v>225.7225416660558</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>156.6911396146184</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>109.1453874063197</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218339</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610488</v>
+        <v>1182.105910636353</v>
       </c>
       <c r="V43" t="n">
-        <v>1068.726127978445</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W43" t="n">
-        <v>877.9803925153277</v>
+        <v>835.3471215411923</v>
       </c>
       <c r="X43" t="n">
-        <v>748.662276191154</v>
+        <v>706.0290052170185</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214675</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.14193247037</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103802</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070895</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464943</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307323</v>
+        <v>581.8252978307301</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495708</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,40 +7658,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052365</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S44" t="n">
         <v>3313.986587710107</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668171</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515852</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746124</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049853</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362616</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960648</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7749,28 +7749,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170914</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630281</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245359</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159863</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919195</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>114.057868640482</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610488</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1068.726127978445</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W46" t="n">
-        <v>779.3089579414841</v>
+        <v>835.3471215411923</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431742</v>
+        <v>706.0290052170185</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734876</v>
+        <v>583.9078606473319</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430625</v>
+        <v>157.235310843063</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728999</v>
+        <v>184.4039433729006</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389593</v>
+        <v>191.4948909389602</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333056</v>
+        <v>181.0856325333065</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830229</v>
+        <v>179.3553748830238</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383979</v>
+        <v>182.8301554383988</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586575</v>
+        <v>190.8908035586583</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266117</v>
+        <v>192.0103836266123</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875971</v>
+        <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372527</v>
+        <v>113.6031223372532</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672266</v>
+        <v>105.9629718672272</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253584</v>
+        <v>104.1013981253591</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677561</v>
+        <v>92.30246558677635</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359727</v>
+        <v>106.8829608359734</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798317</v>
+        <v>105.3113487798323</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615453</v>
+        <v>120.8212784615457</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564653</v>
+        <v>116.1755252564657</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085223</v>
+        <v>119.1996074085226</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140773</v>
+        <v>108.4284123140777</v>
       </c>
       <c r="O10" t="n">
-        <v>120.669460053092</v>
+        <v>120.6694600530924</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662701</v>
+        <v>122.5080856662704</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>127.4994347185291</v>
+        <v>15.66901280727097</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>21.74982042514745</v>
       </c>
       <c r="L26" t="n">
-        <v>343.5485285966315</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,16 +10115,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>343.5485285966315</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>287.0017854473912</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>277.220684154416</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>19.40311602546575</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>-1.335820343228988e-12</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.090683099391754e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>44.31022769028894</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579953</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>143.4760715886285</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>93.83369688816636</v>
+        <v>31.57435335231628</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>12.19249461201587</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>307.5396365830221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>43.15056127126307</v>
+        <v>31.57435335231645</v>
       </c>
       <c r="I16" t="n">
         <v>69.43227382271166</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>41.67450974811442</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23786,13 +23786,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>155.9522295602195</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.0521183134018</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>41.6745097481146</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-8.061223419108174e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.711192221163983e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.010835942201084e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1040813.850331985</v>
+        <v>1040813.850331986</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>927129.2116637883</v>
+        <v>927129.2116637884</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>972493.8781172648</v>
+        <v>972493.8781172649</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>989328.7890918409</v>
+        <v>989328.7890918407</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>989328.7890918406</v>
+        <v>989328.7890918405</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>989328.7890918406</v>
+        <v>989328.7890918405</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>957616.8025741971</v>
+        <v>957616.8025741968</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.8032302231</v>
+        <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
         <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
-        <v>491579.2018835678</v>
+        <v>491579.2018835677</v>
       </c>
       <c r="E2" t="n">
-        <v>437724.0005429849</v>
+        <v>437724.000542985</v>
       </c>
       <c r="F2" t="n">
-        <v>437724.0005429849</v>
+        <v>437724.000542985</v>
       </c>
       <c r="G2" t="n">
         <v>476718.4927479219</v>
       </c>
       <c r="H2" t="n">
-        <v>476718.4927479219</v>
+        <v>476718.492747922</v>
       </c>
       <c r="I2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.06191857</v>
       </c>
       <c r="J2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185696</v>
       </c>
       <c r="K2" t="n">
         <v>492625.0619185697</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.0619185694</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185706</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="N2" t="n">
         <v>492625.0619185703</v>
@@ -26353,7 +26353,7 @@
         <v>492625.0619185703</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185705</v>
+        <v>492625.0619185702</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552426</v>
+        <v>59764.55367552313</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.97216363</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487425</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298336</v>
+        <v>22821.46782983343</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179707</v>
+        <v>25409.43302179686</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487413</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>439568.916991387</v>
+        <v>439568.9169913874</v>
       </c>
       <c r="E4" t="n">
-        <v>41244.0498736744</v>
+        <v>41244.04987367438</v>
       </c>
       <c r="F4" t="n">
-        <v>41244.0498736744</v>
+        <v>41244.04987367441</v>
       </c>
       <c r="G4" t="n">
-        <v>78272.21023511668</v>
+        <v>78272.21023511662</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.21023511668</v>
+        <v>78272.21023511662</v>
       </c>
       <c r="I4" t="n">
-        <v>93189.85962057466</v>
+        <v>93189.85962057472</v>
       </c>
       <c r="J4" t="n">
-        <v>93063.75099226084</v>
+        <v>93063.75099226077</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.75099226084</v>
+        <v>93063.75099226079</v>
       </c>
       <c r="L4" t="n">
-        <v>93063.75099226084</v>
+        <v>93063.7509922608</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820645</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="N4" t="n">
         <v>93403.78684820636</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820647</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820645</v>
+        <v>93403.78684820631</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.9054318664</v>
+        <v>35148.90543186637</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482642</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184212</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624981</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5212.527871886698</v>
+        <v>-5216.941449754926</v>
       </c>
       <c r="C6" t="n">
-        <v>-5212.527871886756</v>
+        <v>-5216.941449754868</v>
       </c>
       <c r="D6" t="n">
-        <v>-42903.17421520977</v>
+        <v>-42907.53196535506</v>
       </c>
       <c r="E6" t="n">
-        <v>-769328.5118591464</v>
+        <v>-769557.2662815456</v>
       </c>
       <c r="F6" t="n">
-        <v>319910.4603044841</v>
+        <v>319681.705882086</v>
       </c>
       <c r="G6" t="n">
-        <v>280347.5300927162</v>
+        <v>280281.2527211718</v>
       </c>
       <c r="H6" t="n">
-        <v>317927.6393875903</v>
+        <v>317861.362016046</v>
       </c>
       <c r="I6" t="n">
-        <v>290877.2061663198</v>
+        <v>290877.2061663197</v>
       </c>
       <c r="J6" t="n">
-        <v>284773.9362297056</v>
+        <v>284773.9362297059</v>
       </c>
       <c r="K6" t="n">
-        <v>310183.3692515027</v>
+        <v>310183.3692515029</v>
       </c>
       <c r="L6" t="n">
-        <v>272603.2599566284</v>
+        <v>272603.2599566288</v>
       </c>
       <c r="M6" t="n">
-        <v>114534.5777713901</v>
+        <v>114534.5777713897</v>
       </c>
       <c r="N6" t="n">
-        <v>316702.6777641142</v>
+        <v>316702.6777641141</v>
       </c>
       <c r="O6" t="n">
-        <v>316702.677764114</v>
+        <v>316702.6777641141</v>
       </c>
       <c r="P6" t="n">
-        <v>316702.6777641142</v>
+        <v>316702.6777641141</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>26.92014658712645</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859261</v>
-      </c>
       <c r="M2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790814</v>
+        <v>69.78465283790682</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,37 +26799,37 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="I4" t="n">
+        <v>917.22193528103</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>917.2219352810296</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022923</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022923</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.401455402292</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951249</v>
+        <v>50.70958360951236</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790814</v>
+        <v>69.78465283790682</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.99204775539</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.82047987873693</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758508</v>
+        <v>97.11452592758428</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959703</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104724</v>
+        <v>199.6603204104726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.246564378017</v>
+        <v>132.2465643780174</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036571</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672093</v>
+        <v>84.22861846672103</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987494</v>
+        <v>90.83829126987513</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519062</v>
+        <v>84.46220888519079</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989971</v>
+        <v>7.649035050990248</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317025</v>
+        <v>75.62456067317045</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075518</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X19" t="n">
-        <v>11.49558901075545</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.49558901075545</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075551</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571908</v>
+        <v>11.49558901075599</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X25" t="n">
-        <v>11.49558901075534</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571908</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>54.14548214544311</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>46.72521440565399</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810506</v>
+        <v>46.72521440565379</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I40" t="n">
-        <v>45.39291458738567</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I43" t="n">
-        <v>54.14548214544319</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -30672,19 +30672,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.7252144056535</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810511</v>
+        <v>46.72521440565328</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X46" t="n">
-        <v>55.47778196371036</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.280541317941339</v>
+        <v>0.2805413179413337</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366739</v>
+        <v>2.873093772366685</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993348</v>
+        <v>10.81556915993328</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362375</v>
+        <v>23.8105936836233</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208064</v>
+        <v>35.68590767207996</v>
       </c>
       <c r="L8" t="n">
-        <v>44.2715240310279</v>
+        <v>44.27152403102706</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396718</v>
+        <v>49.26060069396625</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356802</v>
+        <v>50.05768871356707</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328882</v>
+        <v>47.26805598328793</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661201</v>
+        <v>40.34219219661125</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478378</v>
+        <v>30.29530624783722</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313266</v>
+        <v>17.62255356313232</v>
       </c>
       <c r="S8" t="n">
-        <v>6.39283528258827</v>
+        <v>6.392835282588149</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288212</v>
+        <v>1.228069619288189</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530712</v>
+        <v>0.02244330543530669</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796515</v>
+        <v>0.1501028381796486</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840319</v>
+        <v>1.449677410840291</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694142</v>
+        <v>5.168014384694043</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906962</v>
+        <v>14.18142647906935</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710627</v>
+        <v>24.23831663710581</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264758</v>
+        <v>32.59140791264696</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665993</v>
+        <v>38.03263579665921</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655769</v>
+        <v>39.03924649655695</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847173</v>
+        <v>35.71328360847105</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449854</v>
+        <v>28.66305863449799</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447622</v>
+        <v>19.16049562447585</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768189</v>
+        <v>9.319542882768012</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608875</v>
+        <v>2.788094384608823</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890335</v>
+        <v>0.6050197731890221</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345495</v>
+        <v>0.00987518672234531</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486868</v>
+        <v>0.1258411772486844</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811053</v>
+        <v>1.118842466811031</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078691</v>
+        <v>3.78438740307862</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231482157</v>
+        <v>8.896971231481988</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489288</v>
+        <v>14.6204567748926</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477295</v>
+        <v>18.70915102477259</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908278</v>
+        <v>19.72617653908241</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115588</v>
+        <v>19.25713215115551</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875075</v>
+        <v>17.78707839875042</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287753</v>
+        <v>15.21991838287724</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852413</v>
+        <v>10.53748257852393</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381861</v>
+        <v>5.658276933381754</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233932</v>
+        <v>2.193068516233891</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625707</v>
+        <v>0.5376850300625605</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564743</v>
+        <v>0.006864064213564613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33497,13 +33497,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35574,16 +35574,16 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>318.2864356872416</v>
+        <v>206.4560137759835</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36437,7 +36437,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36595,10 +36595,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>358.9411069805478</v>
       </c>
       <c r="L26" t="n">
-        <v>799.1386429889634</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36610,7 +36610,7 @@
         <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36835,16 +36835,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>799.1386429889634</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>795.0547863356102</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737876</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>79.01631456769047</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861313</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037181</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
